--- a/Tables/wage_ranges.xlsx
+++ b/Tables/wage_ranges.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="251">
   <si>
     <t>fecha_pila</t>
   </si>
@@ -376,6 +376,381 @@
   </si>
   <si>
     <t>P07</t>
+  </si>
+  <si>
+    <t>w_range_1</t>
+  </si>
+  <si>
+    <t>w_range_2</t>
+  </si>
+  <si>
+    <t>w_range_3</t>
+  </si>
+  <si>
+    <t>w_range_4</t>
+  </si>
+  <si>
+    <t>w_range_5</t>
+  </si>
+  <si>
+    <t>fecha_pila</t>
+  </si>
+  <si>
+    <t>rethus_codigoperfilpre1</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>w_range</t>
+  </si>
+  <si>
+    <t>graduates</t>
+  </si>
+  <si>
+    <t>fecha_pila</t>
+  </si>
+  <si>
+    <t>rethus_codigoperfilpre1</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P03</t>
   </si>
   <si>
     <t>w_range_1</t>
@@ -443,25 +818,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -469,22 +844,22 @@
         <v>39448</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4778</v>
+      </c>
+      <c r="D2" s="2">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>12621</v>
-      </c>
-      <c r="D2" s="2">
-        <v>140</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11</v>
-      </c>
       <c r="F2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -492,22 +867,22 @@
         <v>39448</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2">
-        <v>37796</v>
+        <v>21236</v>
       </c>
       <c r="D3" s="2">
-        <v>223</v>
+        <v>605</v>
       </c>
       <c r="E3" s="2">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -515,22 +890,22 @@
         <v>39448</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2">
-        <v>4778</v>
+        <v>37796</v>
       </c>
       <c r="D4" s="2">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +913,22 @@
         <v>39448</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2">
-        <v>21236</v>
+        <v>12621</v>
       </c>
       <c r="D5" s="2">
-        <v>605</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -561,22 +936,22 @@
         <v>39630</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2">
-        <v>37305</v>
+        <v>12417</v>
       </c>
       <c r="D6" s="2">
-        <v>661</v>
+        <v>321</v>
       </c>
       <c r="E6" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +959,7 @@
         <v>39630</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>20798</v>
@@ -607,22 +982,22 @@
         <v>39630</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2">
-        <v>12417</v>
+        <v>37305</v>
       </c>
       <c r="D8" s="2">
-        <v>321</v>
+        <v>661</v>
       </c>
       <c r="E8" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -630,7 +1005,7 @@
         <v>39630</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2">
         <v>4716</v>
@@ -653,22 +1028,22 @@
         <v>39814</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2">
-        <v>20563</v>
+        <v>12313</v>
       </c>
       <c r="D10" s="2">
-        <v>779</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2">
-        <v>463</v>
+        <v>147</v>
       </c>
       <c r="F10" s="2">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="G10" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -676,22 +1051,22 @@
         <v>39814</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2">
-        <v>4667</v>
+        <v>37040</v>
       </c>
       <c r="D11" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="E11" s="2">
-        <v>59</v>
+        <v>365</v>
       </c>
       <c r="F11" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -699,22 +1074,22 @@
         <v>39814</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2">
-        <v>37040</v>
+        <v>4667</v>
       </c>
       <c r="D12" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2">
-        <v>365</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -722,22 +1097,22 @@
         <v>39814</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2">
-        <v>12313</v>
+        <v>20563</v>
       </c>
       <c r="D13" s="2">
-        <v>198</v>
+        <v>779</v>
       </c>
       <c r="E13" s="2">
-        <v>147</v>
+        <v>463</v>
       </c>
       <c r="F13" s="2">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -745,22 +1120,22 @@
         <v>39995</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2">
-        <v>4616</v>
+        <v>20396</v>
       </c>
       <c r="D14" s="2">
-        <v>99</v>
+        <v>793</v>
       </c>
       <c r="E14" s="2">
-        <v>70</v>
+        <v>565</v>
       </c>
       <c r="F14" s="2">
-        <v>63</v>
+        <v>377</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -768,22 +1143,22 @@
         <v>39995</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2">
-        <v>36846</v>
+        <v>12249</v>
       </c>
       <c r="D15" s="2">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2">
-        <v>463</v>
+        <v>198</v>
       </c>
       <c r="F15" s="2">
-        <v>449</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -791,22 +1166,22 @@
         <v>39995</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2">
-        <v>20396</v>
+        <v>36846</v>
       </c>
       <c r="D16" s="2">
-        <v>793</v>
+        <v>319</v>
       </c>
       <c r="E16" s="2">
-        <v>565</v>
+        <v>463</v>
       </c>
       <c r="F16" s="2">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -814,22 +1189,22 @@
         <v>39995</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2">
-        <v>12249</v>
+        <v>4616</v>
       </c>
       <c r="D17" s="2">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -837,22 +1212,22 @@
         <v>40179</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2">
-        <v>20345</v>
+        <v>12245</v>
       </c>
       <c r="D18" s="2">
-        <v>1381</v>
+        <v>507</v>
       </c>
       <c r="E18" s="2">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -860,22 +1235,22 @@
         <v>40179</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2">
-        <v>4575</v>
+        <v>20345</v>
       </c>
       <c r="D19" s="2">
-        <v>253</v>
+        <v>1381</v>
       </c>
       <c r="E19" s="2">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -883,7 +1258,7 @@
         <v>40179</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2">
         <v>36726</v>
@@ -906,22 +1281,22 @@
         <v>40179</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2">
-        <v>12245</v>
+        <v>4575</v>
       </c>
       <c r="D21" s="2">
-        <v>507</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -929,22 +1304,22 @@
         <v>40360</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2">
-        <v>4522</v>
+        <v>36495</v>
       </c>
       <c r="D22" s="2">
-        <v>306</v>
+        <v>1451</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -952,22 +1327,22 @@
         <v>40360</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2">
-        <v>36495</v>
+        <v>12157</v>
       </c>
       <c r="D23" s="2">
-        <v>1451</v>
+        <v>589</v>
       </c>
       <c r="E23" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -975,22 +1350,22 @@
         <v>40360</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C24" s="2">
-        <v>20279</v>
+        <v>4522</v>
       </c>
       <c r="D24" s="2">
-        <v>1454</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -998,22 +1373,22 @@
         <v>40360</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2">
-        <v>12157</v>
+        <v>20279</v>
       </c>
       <c r="D25" s="2">
-        <v>589</v>
+        <v>1454</v>
       </c>
       <c r="E25" s="2">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="F25" s="2">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="G25" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1021,22 +1396,22 @@
         <v>40544</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2">
-        <v>19952</v>
+        <v>4444</v>
       </c>
       <c r="D26" s="2">
-        <v>893</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2">
-        <v>623</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2">
-        <v>657</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1044,22 +1419,22 @@
         <v>40544</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2">
-        <v>12027</v>
+        <v>35861</v>
       </c>
       <c r="D27" s="2">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="E27" s="2">
-        <v>257</v>
+        <v>601</v>
       </c>
       <c r="F27" s="2">
-        <v>299</v>
+        <v>1084</v>
       </c>
       <c r="G27" s="2">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -1067,22 +1442,22 @@
         <v>40544</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2">
-        <v>35861</v>
+        <v>12027</v>
       </c>
       <c r="D28" s="2">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2">
-        <v>601</v>
+        <v>257</v>
       </c>
       <c r="F28" s="2">
-        <v>1084</v>
+        <v>299</v>
       </c>
       <c r="G28" s="2">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1090,22 +1465,22 @@
         <v>40544</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2">
-        <v>4444</v>
+        <v>19952</v>
       </c>
       <c r="D29" s="2">
-        <v>159</v>
+        <v>893</v>
       </c>
       <c r="E29" s="2">
-        <v>87</v>
+        <v>623</v>
       </c>
       <c r="F29" s="2">
-        <v>157</v>
+        <v>657</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1113,22 +1488,22 @@
         <v>40725</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2">
-        <v>4262</v>
+        <v>34849</v>
       </c>
       <c r="D30" s="2">
-        <v>211</v>
+        <v>515</v>
       </c>
       <c r="E30" s="2">
-        <v>117</v>
+        <v>815</v>
       </c>
       <c r="F30" s="2">
-        <v>244</v>
+        <v>1341</v>
       </c>
       <c r="G30" s="2">
-        <v>15</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31">
@@ -1136,22 +1511,22 @@
         <v>40725</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2">
-        <v>19195</v>
+        <v>4262</v>
       </c>
       <c r="D31" s="2">
-        <v>1018</v>
+        <v>211</v>
       </c>
       <c r="E31" s="2">
-        <v>845</v>
+        <v>117</v>
       </c>
       <c r="F31" s="2">
-        <v>973</v>
+        <v>244</v>
       </c>
       <c r="G31" s="2">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1159,22 +1534,22 @@
         <v>40725</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2">
-        <v>11772</v>
+        <v>19195</v>
       </c>
       <c r="D32" s="2">
-        <v>256</v>
+        <v>1018</v>
       </c>
       <c r="E32" s="2">
-        <v>318</v>
+        <v>845</v>
       </c>
       <c r="F32" s="2">
-        <v>412</v>
+        <v>973</v>
       </c>
       <c r="G32" s="2">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -1182,22 +1557,22 @@
         <v>40725</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2">
-        <v>34849</v>
+        <v>11772</v>
       </c>
       <c r="D33" s="2">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2">
-        <v>815</v>
+        <v>318</v>
       </c>
       <c r="F33" s="2">
-        <v>1341</v>
+        <v>412</v>
       </c>
       <c r="G33" s="2">
-        <v>610</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -1205,22 +1580,22 @@
         <v>40909</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2">
-        <v>32404</v>
+        <v>18048</v>
       </c>
       <c r="D34" s="2">
-        <v>566</v>
+        <v>1110</v>
       </c>
       <c r="E34" s="2">
-        <v>1314</v>
+        <v>1130</v>
       </c>
       <c r="F34" s="2">
-        <v>2368</v>
+        <v>1515</v>
       </c>
       <c r="G34" s="2">
-        <v>1478</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
@@ -1228,22 +1603,22 @@
         <v>40909</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2">
-        <v>18048</v>
+        <v>32404</v>
       </c>
       <c r="D35" s="2">
-        <v>1110</v>
+        <v>566</v>
       </c>
       <c r="E35" s="2">
-        <v>1130</v>
+        <v>1314</v>
       </c>
       <c r="F35" s="2">
-        <v>1515</v>
+        <v>2368</v>
       </c>
       <c r="G35" s="2">
-        <v>335</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="36">
@@ -1251,22 +1626,22 @@
         <v>40909</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="C36" s="2">
-        <v>11233</v>
+        <v>3968</v>
       </c>
       <c r="D36" s="2">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="E36" s="2">
-        <v>489</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2">
-        <v>653</v>
+        <v>379</v>
       </c>
       <c r="G36" s="2">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -1274,22 +1649,22 @@
         <v>40909</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2">
-        <v>3968</v>
+        <v>11233</v>
       </c>
       <c r="D37" s="2">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2">
-        <v>189</v>
+        <v>489</v>
       </c>
       <c r="F37" s="2">
-        <v>379</v>
+        <v>653</v>
       </c>
       <c r="G37" s="2">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -1297,7 +1672,7 @@
         <v>41091</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2">
         <v>29707</v>
@@ -1320,22 +1695,22 @@
         <v>41091</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2">
-        <v>16768</v>
+        <v>3638</v>
       </c>
       <c r="D39" s="2">
-        <v>1172</v>
+        <v>263</v>
       </c>
       <c r="E39" s="2">
-        <v>1106</v>
+        <v>187</v>
       </c>
       <c r="F39" s="2">
-        <v>2343</v>
+        <v>626</v>
       </c>
       <c r="G39" s="2">
-        <v>749</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
@@ -1343,22 +1718,22 @@
         <v>41091</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C40" s="2">
-        <v>10620</v>
+        <v>16768</v>
       </c>
       <c r="D40" s="2">
-        <v>414</v>
+        <v>1172</v>
       </c>
       <c r="E40" s="2">
-        <v>401</v>
+        <v>1106</v>
       </c>
       <c r="F40" s="2">
-        <v>953</v>
+        <v>2343</v>
       </c>
       <c r="G40" s="2">
-        <v>395</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41">
@@ -1366,22 +1741,22 @@
         <v>41091</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2">
-        <v>3638</v>
+        <v>10620</v>
       </c>
       <c r="D41" s="2">
-        <v>263</v>
+        <v>414</v>
       </c>
       <c r="E41" s="2">
-        <v>187</v>
+        <v>401</v>
       </c>
       <c r="F41" s="2">
-        <v>626</v>
+        <v>953</v>
       </c>
       <c r="G41" s="2">
-        <v>135</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42">
@@ -1389,22 +1764,22 @@
         <v>41275</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2">
-        <v>15793</v>
+        <v>3454</v>
       </c>
       <c r="D42" s="2">
-        <v>2163</v>
+        <v>553</v>
       </c>
       <c r="E42" s="2">
-        <v>893</v>
+        <v>184</v>
       </c>
       <c r="F42" s="2">
-        <v>2294</v>
+        <v>508</v>
       </c>
       <c r="G42" s="2">
-        <v>995</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1412,22 +1787,22 @@
         <v>41275</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2">
-        <v>27768</v>
+        <v>10384</v>
       </c>
       <c r="D43" s="2">
-        <v>2290</v>
+        <v>1260</v>
       </c>
       <c r="E43" s="2">
-        <v>624</v>
+        <v>168</v>
       </c>
       <c r="F43" s="2">
-        <v>2128</v>
+        <v>587</v>
       </c>
       <c r="G43" s="2">
-        <v>5320</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
@@ -1435,22 +1810,22 @@
         <v>41275</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2">
-        <v>10384</v>
+        <v>15793</v>
       </c>
       <c r="D44" s="2">
-        <v>1260</v>
+        <v>2163</v>
       </c>
       <c r="E44" s="2">
-        <v>168</v>
+        <v>893</v>
       </c>
       <c r="F44" s="2">
-        <v>587</v>
+        <v>2294</v>
       </c>
       <c r="G44" s="2">
-        <v>384</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45">
@@ -1458,22 +1833,22 @@
         <v>41275</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2">
-        <v>3454</v>
+        <v>27768</v>
       </c>
       <c r="D45" s="2">
-        <v>553</v>
+        <v>2290</v>
       </c>
       <c r="E45" s="2">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="F45" s="2">
-        <v>508</v>
+        <v>2128</v>
       </c>
       <c r="G45" s="2">
-        <v>150</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="46">
@@ -1481,22 +1856,22 @@
         <v>41456</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2">
-        <v>25777</v>
+        <v>3144</v>
       </c>
       <c r="D46" s="2">
-        <v>2392</v>
+        <v>622</v>
       </c>
       <c r="E46" s="2">
-        <v>689</v>
+        <v>226</v>
       </c>
       <c r="F46" s="2">
-        <v>2446</v>
+        <v>633</v>
       </c>
       <c r="G46" s="2">
-        <v>6826</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47">
@@ -1504,22 +1879,22 @@
         <v>41456</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2">
-        <v>14371</v>
+        <v>25777</v>
       </c>
       <c r="D47" s="2">
-        <v>2256</v>
+        <v>2392</v>
       </c>
       <c r="E47" s="2">
-        <v>1040</v>
+        <v>689</v>
       </c>
       <c r="F47" s="2">
-        <v>2943</v>
+        <v>2446</v>
       </c>
       <c r="G47" s="2">
-        <v>1528</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="48">
@@ -1527,22 +1902,22 @@
         <v>41456</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2">
-        <v>9924</v>
+        <v>14371</v>
       </c>
       <c r="D48" s="2">
-        <v>1441</v>
+        <v>2256</v>
       </c>
       <c r="E48" s="2">
-        <v>267</v>
+        <v>1040</v>
       </c>
       <c r="F48" s="2">
-        <v>700</v>
+        <v>2943</v>
       </c>
       <c r="G48" s="2">
-        <v>451</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="49">
@@ -1550,22 +1925,22 @@
         <v>41456</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2">
-        <v>3144</v>
+        <v>9924</v>
       </c>
       <c r="D49" s="2">
-        <v>622</v>
+        <v>1441</v>
       </c>
       <c r="E49" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="F49" s="2">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="G49" s="2">
-        <v>224</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50">
@@ -1573,22 +1948,22 @@
         <v>41640</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2">
-        <v>2855</v>
+        <v>9526</v>
       </c>
       <c r="D50" s="2">
-        <v>665</v>
+        <v>1778</v>
       </c>
       <c r="E50" s="2">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="F50" s="2">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G50" s="2">
-        <v>270</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
@@ -1596,22 +1971,22 @@
         <v>41640</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2">
-        <v>23635</v>
+        <v>12995</v>
       </c>
       <c r="D51" s="2">
-        <v>2492</v>
+        <v>2324</v>
       </c>
       <c r="E51" s="2">
-        <v>744</v>
+        <v>1179</v>
       </c>
       <c r="F51" s="2">
-        <v>2782</v>
+        <v>3531</v>
       </c>
       <c r="G51" s="2">
-        <v>8477</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="52">
@@ -1619,22 +1994,22 @@
         <v>41640</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2">
-        <v>12995</v>
+        <v>23635</v>
       </c>
       <c r="D52" s="2">
-        <v>2324</v>
+        <v>2492</v>
       </c>
       <c r="E52" s="2">
-        <v>1179</v>
+        <v>744</v>
       </c>
       <c r="F52" s="2">
-        <v>3531</v>
+        <v>2782</v>
       </c>
       <c r="G52" s="2">
-        <v>2109</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="53">
@@ -1642,22 +2017,22 @@
         <v>41640</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2">
-        <v>9526</v>
+        <v>2855</v>
       </c>
       <c r="D53" s="2">
-        <v>1778</v>
+        <v>665</v>
       </c>
       <c r="E53" s="2">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F53" s="2">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="G53" s="2">
-        <v>472</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
@@ -1665,22 +2040,22 @@
         <v>41821</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2">
-        <v>8978</v>
+        <v>11566</v>
       </c>
       <c r="D54" s="2">
-        <v>2024</v>
+        <v>2328</v>
       </c>
       <c r="E54" s="2">
-        <v>333</v>
+        <v>1315</v>
       </c>
       <c r="F54" s="2">
-        <v>929</v>
+        <v>4261</v>
       </c>
       <c r="G54" s="2">
-        <v>519</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="55">
@@ -1688,22 +2063,22 @@
         <v>41821</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C55" s="2">
-        <v>11566</v>
+        <v>2586</v>
       </c>
       <c r="D55" s="2">
-        <v>2328</v>
+        <v>717</v>
       </c>
       <c r="E55" s="2">
-        <v>1315</v>
+        <v>349</v>
       </c>
       <c r="F55" s="2">
-        <v>4261</v>
+        <v>881</v>
       </c>
       <c r="G55" s="2">
-        <v>2668</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56">
@@ -1711,22 +2086,22 @@
         <v>41821</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="C56" s="2">
-        <v>21754</v>
+        <v>8978</v>
       </c>
       <c r="D56" s="2">
-        <v>2511</v>
+        <v>2024</v>
       </c>
       <c r="E56" s="2">
-        <v>844</v>
+        <v>333</v>
       </c>
       <c r="F56" s="2">
-        <v>3158</v>
+        <v>929</v>
       </c>
       <c r="G56" s="2">
-        <v>9863</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57">
@@ -1734,22 +2109,22 @@
         <v>41821</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C57" s="2">
-        <v>2586</v>
+        <v>21754</v>
       </c>
       <c r="D57" s="2">
-        <v>717</v>
+        <v>2511</v>
       </c>
       <c r="E57" s="2">
-        <v>349</v>
+        <v>844</v>
       </c>
       <c r="F57" s="2">
-        <v>881</v>
+        <v>3158</v>
       </c>
       <c r="G57" s="2">
-        <v>316</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="58">
@@ -1757,7 +2132,7 @@
         <v>42005</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C58" s="2">
         <v>10271</v>
@@ -1780,22 +2155,22 @@
         <v>42005</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2">
-        <v>1819</v>
+        <v>5246</v>
       </c>
       <c r="D59" s="2">
-        <v>1186</v>
+        <v>5296</v>
       </c>
       <c r="E59" s="2">
-        <v>435</v>
+        <v>627</v>
       </c>
       <c r="F59" s="2">
-        <v>1074</v>
+        <v>1106</v>
       </c>
       <c r="G59" s="2">
-        <v>335</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
@@ -1803,7 +2178,7 @@
         <v>42005</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2">
         <v>7307</v>
@@ -1826,22 +2201,22 @@
         <v>42005</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C61" s="2">
-        <v>5246</v>
+        <v>1819</v>
       </c>
       <c r="D61" s="2">
-        <v>5296</v>
+        <v>1186</v>
       </c>
       <c r="E61" s="2">
-        <v>627</v>
+        <v>435</v>
       </c>
       <c r="F61" s="2">
-        <v>1106</v>
+        <v>1074</v>
       </c>
       <c r="G61" s="2">
-        <v>508</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62">
@@ -1849,7 +2224,7 @@
         <v>42186</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C62" s="2">
         <v>1562</v>
@@ -1872,7 +2247,7 @@
         <v>42186</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2">
         <v>7713</v>
@@ -1895,7 +2270,7 @@
         <v>42186</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2">
         <v>5081</v>
@@ -1918,7 +2293,7 @@
         <v>42186</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2">
         <v>5843</v>
@@ -1941,7 +2316,7 @@
         <v>42370</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C66" s="2">
         <v>5429</v>
@@ -1964,22 +2339,22 @@
         <v>42370</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="C67" s="2">
-        <v>7346</v>
+        <v>5016</v>
       </c>
       <c r="D67" s="2">
-        <v>10915</v>
+        <v>5054</v>
       </c>
       <c r="E67" s="2">
-        <v>1883</v>
+        <v>794</v>
       </c>
       <c r="F67" s="2">
-        <v>4768</v>
+        <v>1386</v>
       </c>
       <c r="G67" s="2">
-        <v>13218</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68">
@@ -1987,22 +2362,22 @@
         <v>42370</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C68" s="2">
-        <v>5016</v>
+        <v>7346</v>
       </c>
       <c r="D68" s="2">
-        <v>5054</v>
+        <v>10915</v>
       </c>
       <c r="E68" s="2">
-        <v>794</v>
+        <v>1883</v>
       </c>
       <c r="F68" s="2">
-        <v>1386</v>
+        <v>4768</v>
       </c>
       <c r="G68" s="2">
-        <v>533</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="69">
@@ -2010,7 +2385,7 @@
         <v>42370</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="C69" s="2">
         <v>1364</v>
@@ -2033,7 +2408,7 @@
         <v>42552</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2">
         <v>4721</v>
@@ -2056,22 +2431,22 @@
         <v>42552</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2">
-        <v>5052</v>
+        <v>7778</v>
       </c>
       <c r="D71" s="2">
-        <v>4651</v>
+        <v>8798</v>
       </c>
       <c r="E71" s="2">
-        <v>848</v>
+        <v>1726</v>
       </c>
       <c r="F71" s="2">
-        <v>1567</v>
+        <v>5452</v>
       </c>
       <c r="G71" s="2">
-        <v>665</v>
+        <v>14376</v>
       </c>
     </row>
     <row r="72">
@@ -2079,22 +2454,22 @@
         <v>42552</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C72" s="2">
-        <v>1217</v>
+        <v>5052</v>
       </c>
       <c r="D72" s="2">
-        <v>1155</v>
+        <v>4651</v>
       </c>
       <c r="E72" s="2">
-        <v>538</v>
+        <v>848</v>
       </c>
       <c r="F72" s="2">
-        <v>1501</v>
+        <v>1567</v>
       </c>
       <c r="G72" s="2">
-        <v>438</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73">
@@ -2102,22 +2477,22 @@
         <v>42552</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="C73" s="2">
-        <v>7778</v>
+        <v>1217</v>
       </c>
       <c r="D73" s="2">
-        <v>8798</v>
+        <v>1155</v>
       </c>
       <c r="E73" s="2">
-        <v>1726</v>
+        <v>538</v>
       </c>
       <c r="F73" s="2">
-        <v>5452</v>
+        <v>1501</v>
       </c>
       <c r="G73" s="2">
-        <v>14376</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74">
@@ -2125,22 +2500,22 @@
         <v>42736</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="C74" s="2">
-        <v>8607</v>
+        <v>1202</v>
       </c>
       <c r="D74" s="2">
-        <v>6213</v>
+        <v>990</v>
       </c>
       <c r="E74" s="2">
-        <v>1781</v>
+        <v>638</v>
       </c>
       <c r="F74" s="2">
-        <v>6437</v>
+        <v>1549</v>
       </c>
       <c r="G74" s="2">
-        <v>15092</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75">
@@ -2148,7 +2523,7 @@
         <v>42736</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="C75" s="2">
         <v>4192</v>
@@ -2171,7 +2546,7 @@
         <v>42736</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2">
         <v>5487</v>
@@ -2194,22 +2569,22 @@
         <v>42736</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="C77" s="2">
-        <v>1202</v>
+        <v>8607</v>
       </c>
       <c r="D77" s="2">
-        <v>990</v>
+        <v>6213</v>
       </c>
       <c r="E77" s="2">
-        <v>638</v>
+        <v>1781</v>
       </c>
       <c r="F77" s="2">
-        <v>1549</v>
+        <v>6437</v>
       </c>
       <c r="G77" s="2">
-        <v>470</v>
+        <v>15092</v>
       </c>
     </row>
     <row r="78">
@@ -2217,22 +2592,22 @@
         <v>42917</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="C78" s="2">
-        <v>5847</v>
+        <v>9138</v>
       </c>
       <c r="D78" s="2">
-        <v>3421</v>
+        <v>4090</v>
       </c>
       <c r="E78" s="2">
-        <v>846</v>
+        <v>1568</v>
       </c>
       <c r="F78" s="2">
-        <v>1811</v>
+        <v>6834</v>
       </c>
       <c r="G78" s="2">
-        <v>858</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="79">
@@ -2240,22 +2615,22 @@
         <v>42917</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2">
-        <v>3487</v>
+        <v>5847</v>
       </c>
       <c r="D79" s="2">
-        <v>3010</v>
+        <v>3421</v>
       </c>
       <c r="E79" s="2">
-        <v>2771</v>
+        <v>846</v>
       </c>
       <c r="F79" s="2">
-        <v>8409</v>
+        <v>1811</v>
       </c>
       <c r="G79" s="2">
-        <v>4461</v>
+        <v>858</v>
       </c>
     </row>
     <row r="80">
@@ -2263,22 +2638,22 @@
         <v>42917</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="C80" s="2">
-        <v>9138</v>
+        <v>1167</v>
       </c>
       <c r="D80" s="2">
-        <v>4090</v>
+        <v>829</v>
       </c>
       <c r="E80" s="2">
-        <v>1568</v>
+        <v>643</v>
       </c>
       <c r="F80" s="2">
-        <v>6834</v>
+        <v>1667</v>
       </c>
       <c r="G80" s="2">
-        <v>16500</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81">
@@ -2286,22 +2661,22 @@
         <v>42917</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="C81" s="2">
-        <v>1167</v>
+        <v>3487</v>
       </c>
       <c r="D81" s="2">
-        <v>829</v>
+        <v>3010</v>
       </c>
       <c r="E81" s="2">
-        <v>643</v>
+        <v>2771</v>
       </c>
       <c r="F81" s="2">
-        <v>1667</v>
+        <v>8409</v>
       </c>
       <c r="G81" s="2">
-        <v>543</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="82">
@@ -2309,22 +2684,22 @@
         <v>43101</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="C82" s="2">
-        <v>3170</v>
+        <v>1082</v>
       </c>
       <c r="D82" s="2">
-        <v>2576</v>
+        <v>804</v>
       </c>
       <c r="E82" s="2">
-        <v>2871</v>
+        <v>665</v>
       </c>
       <c r="F82" s="2">
-        <v>8752</v>
+        <v>1674</v>
       </c>
       <c r="G82" s="2">
-        <v>4769</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83">
@@ -2332,7 +2707,7 @@
         <v>43101</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="C83" s="2">
         <v>9689</v>
@@ -2355,7 +2730,7 @@
         <v>43101</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C84" s="2">
         <v>5721</v>
@@ -2378,22 +2753,22 @@
         <v>43101</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="C85" s="2">
-        <v>1082</v>
+        <v>3170</v>
       </c>
       <c r="D85" s="2">
-        <v>804</v>
+        <v>2576</v>
       </c>
       <c r="E85" s="2">
-        <v>665</v>
+        <v>2871</v>
       </c>
       <c r="F85" s="2">
-        <v>1674</v>
+        <v>8752</v>
       </c>
       <c r="G85" s="2">
-        <v>624</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="86">
@@ -2401,22 +2776,22 @@
         <v>43282</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="C86" s="2">
-        <v>2897</v>
+        <v>10148</v>
       </c>
       <c r="D86" s="2">
-        <v>2391</v>
+        <v>2460</v>
       </c>
       <c r="E86" s="2">
-        <v>2808</v>
+        <v>1253</v>
       </c>
       <c r="F86" s="2">
-        <v>8888</v>
+        <v>6070</v>
       </c>
       <c r="G86" s="2">
-        <v>5154</v>
+        <v>18199</v>
       </c>
     </row>
     <row r="87">
@@ -2424,22 +2799,22 @@
         <v>43282</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C87" s="2">
-        <v>10148</v>
+        <v>5485</v>
       </c>
       <c r="D87" s="2">
-        <v>2460</v>
+        <v>3623</v>
       </c>
       <c r="E87" s="2">
-        <v>1253</v>
+        <v>832</v>
       </c>
       <c r="F87" s="2">
-        <v>6070</v>
+        <v>1763</v>
       </c>
       <c r="G87" s="2">
-        <v>18199</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="88">
@@ -2447,22 +2822,22 @@
         <v>43282</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2">
-        <v>5485</v>
+        <v>2897</v>
       </c>
       <c r="D88" s="2">
-        <v>3623</v>
+        <v>2391</v>
       </c>
       <c r="E88" s="2">
-        <v>832</v>
+        <v>2808</v>
       </c>
       <c r="F88" s="2">
-        <v>1763</v>
+        <v>8888</v>
       </c>
       <c r="G88" s="2">
-        <v>1080</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="89">
@@ -2470,7 +2845,7 @@
         <v>43282</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="C89" s="2">
         <v>964</v>
@@ -2493,22 +2868,22 @@
         <v>43466</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="C90" s="2">
-        <v>10810</v>
+        <v>979</v>
       </c>
       <c r="D90" s="2">
-        <v>2782</v>
+        <v>850</v>
       </c>
       <c r="E90" s="2">
-        <v>1264</v>
+        <v>705</v>
       </c>
       <c r="F90" s="2">
-        <v>5427</v>
+        <v>1617</v>
       </c>
       <c r="G90" s="2">
-        <v>17847</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91">
@@ -2516,22 +2891,22 @@
         <v>43466</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C91" s="2">
-        <v>5443</v>
+        <v>3195</v>
       </c>
       <c r="D91" s="2">
-        <v>3871</v>
+        <v>2512</v>
       </c>
       <c r="E91" s="2">
-        <v>753</v>
+        <v>2700</v>
       </c>
       <c r="F91" s="2">
-        <v>1655</v>
+        <v>8761</v>
       </c>
       <c r="G91" s="2">
-        <v>1061</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="92">
@@ -2539,22 +2914,22 @@
         <v>43466</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="C92" s="2">
-        <v>3195</v>
+        <v>5443</v>
       </c>
       <c r="D92" s="2">
-        <v>2512</v>
+        <v>3871</v>
       </c>
       <c r="E92" s="2">
-        <v>2700</v>
+        <v>753</v>
       </c>
       <c r="F92" s="2">
-        <v>8761</v>
+        <v>1655</v>
       </c>
       <c r="G92" s="2">
-        <v>4970</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="93">
@@ -2562,22 +2937,22 @@
         <v>43466</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="C93" s="2">
-        <v>979</v>
+        <v>10810</v>
       </c>
       <c r="D93" s="2">
-        <v>850</v>
+        <v>2782</v>
       </c>
       <c r="E93" s="2">
-        <v>705</v>
+        <v>1264</v>
       </c>
       <c r="F93" s="2">
-        <v>1617</v>
+        <v>5427</v>
       </c>
       <c r="G93" s="2">
-        <v>698</v>
+        <v>17847</v>
       </c>
     </row>
     <row r="94">
@@ -2585,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C94" s="2">
         <v>906</v>
@@ -2608,7 +2983,7 @@
         <v>43647</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="C95" s="2">
         <v>2890</v>
@@ -2631,7 +3006,7 @@
         <v>43647</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="C96" s="2">
         <v>10951</v>
@@ -2654,7 +3029,7 @@
         <v>43647</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="C97" s="2">
         <v>5080</v>
@@ -2677,22 +3052,22 @@
         <v>43831</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="C98" s="2">
-        <v>5327</v>
+        <v>934</v>
       </c>
       <c r="D98" s="2">
-        <v>4204</v>
+        <v>725</v>
       </c>
       <c r="E98" s="2">
-        <v>835</v>
+        <v>694</v>
       </c>
       <c r="F98" s="2">
-        <v>1515</v>
+        <v>1621</v>
       </c>
       <c r="G98" s="2">
-        <v>902</v>
+        <v>875</v>
       </c>
     </row>
     <row r="99">
@@ -2700,7 +3075,7 @@
         <v>43831</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C99" s="2">
         <v>11244</v>
@@ -2723,7 +3098,7 @@
         <v>43831</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="C100" s="2">
         <v>3289</v>
@@ -2746,22 +3121,22 @@
         <v>43831</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="C101" s="2">
-        <v>934</v>
+        <v>5327</v>
       </c>
       <c r="D101" s="2">
-        <v>725</v>
+        <v>4204</v>
       </c>
       <c r="E101" s="2">
-        <v>694</v>
+        <v>835</v>
       </c>
       <c r="F101" s="2">
-        <v>1621</v>
+        <v>1515</v>
       </c>
       <c r="G101" s="2">
-        <v>875</v>
+        <v>902</v>
       </c>
     </row>
     <row r="102">
@@ -2769,22 +3144,22 @@
         <v>44013</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="C102" s="2">
-        <v>5191</v>
+        <v>812</v>
       </c>
       <c r="D102" s="2">
-        <v>4211</v>
+        <v>623</v>
       </c>
       <c r="E102" s="2">
-        <v>782</v>
+        <v>574</v>
       </c>
       <c r="F102" s="2">
-        <v>1460</v>
+        <v>1621</v>
       </c>
       <c r="G102" s="2">
-        <v>1139</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="103">
@@ -2792,22 +3167,22 @@
         <v>44013</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2">
-        <v>2762</v>
+        <v>10656</v>
       </c>
       <c r="D103" s="2">
-        <v>1990</v>
+        <v>2538</v>
       </c>
       <c r="E103" s="2">
-        <v>2077</v>
+        <v>877</v>
       </c>
       <c r="F103" s="2">
-        <v>8435</v>
+        <v>4201</v>
       </c>
       <c r="G103" s="2">
-        <v>6874</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="104">
@@ -2815,22 +3190,22 @@
         <v>44013</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="C104" s="2">
-        <v>812</v>
+        <v>5191</v>
       </c>
       <c r="D104" s="2">
-        <v>623</v>
+        <v>4211</v>
       </c>
       <c r="E104" s="2">
-        <v>574</v>
+        <v>782</v>
       </c>
       <c r="F104" s="2">
-        <v>1621</v>
+        <v>1460</v>
       </c>
       <c r="G104" s="2">
-        <v>1219</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="105">
@@ -2838,22 +3213,22 @@
         <v>44013</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="C105" s="2">
-        <v>10656</v>
+        <v>2762</v>
       </c>
       <c r="D105" s="2">
-        <v>2538</v>
+        <v>1990</v>
       </c>
       <c r="E105" s="2">
-        <v>877</v>
+        <v>2077</v>
       </c>
       <c r="F105" s="2">
-        <v>4201</v>
+        <v>8435</v>
       </c>
       <c r="G105" s="2">
-        <v>19858</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="106">
@@ -2861,7 +3236,7 @@
         <v>44197</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="C106" s="2">
         <v>2637</v>
@@ -2884,22 +3259,22 @@
         <v>44197</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="C107" s="2">
-        <v>10440</v>
+        <v>4851</v>
       </c>
       <c r="D107" s="2">
-        <v>2431</v>
+        <v>4198</v>
       </c>
       <c r="E107" s="2">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="F107" s="2">
-        <v>3898</v>
+        <v>1605</v>
       </c>
       <c r="G107" s="2">
-        <v>20626</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="108">
@@ -2907,22 +3282,22 @@
         <v>44197</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="C108" s="2">
-        <v>4851</v>
+        <v>746</v>
       </c>
       <c r="D108" s="2">
-        <v>4198</v>
+        <v>609</v>
       </c>
       <c r="E108" s="2">
-        <v>766</v>
+        <v>516</v>
       </c>
       <c r="F108" s="2">
-        <v>1605</v>
+        <v>1652</v>
       </c>
       <c r="G108" s="2">
-        <v>1363</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="109">
@@ -2930,22 +3305,22 @@
         <v>44197</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="C109" s="2">
-        <v>746</v>
+        <v>10440</v>
       </c>
       <c r="D109" s="2">
-        <v>609</v>
+        <v>2431</v>
       </c>
       <c r="E109" s="2">
-        <v>516</v>
+        <v>735</v>
       </c>
       <c r="F109" s="2">
-        <v>1652</v>
+        <v>3898</v>
       </c>
       <c r="G109" s="2">
-        <v>1326</v>
+        <v>20626</v>
       </c>
     </row>
     <row r="110">
@@ -2953,22 +3328,22 @@
         <v>44378</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2">
-        <v>10441</v>
+        <v>2584</v>
       </c>
       <c r="D110" s="2">
-        <v>2345</v>
+        <v>1747</v>
       </c>
       <c r="E110" s="2">
-        <v>737</v>
+        <v>1776</v>
       </c>
       <c r="F110" s="2">
-        <v>3787</v>
+        <v>8423</v>
       </c>
       <c r="G110" s="2">
-        <v>20820</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="111">
@@ -2976,22 +3351,22 @@
         <v>44378</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="C111" s="2">
-        <v>4572</v>
+        <v>10441</v>
       </c>
       <c r="D111" s="2">
-        <v>4097</v>
+        <v>2345</v>
       </c>
       <c r="E111" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F111" s="2">
-        <v>1698</v>
+        <v>3787</v>
       </c>
       <c r="G111" s="2">
-        <v>1676</v>
+        <v>20820</v>
       </c>
     </row>
     <row r="112">
@@ -2999,22 +3374,22 @@
         <v>44378</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2">
-        <v>699</v>
+        <v>4572</v>
       </c>
       <c r="D112" s="2">
-        <v>566</v>
+        <v>4097</v>
       </c>
       <c r="E112" s="2">
-        <v>475</v>
+        <v>740</v>
       </c>
       <c r="F112" s="2">
-        <v>1651</v>
+        <v>1698</v>
       </c>
       <c r="G112" s="2">
-        <v>1458</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="113">
@@ -3022,22 +3397,22 @@
         <v>44378</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="C113" s="2">
-        <v>2584</v>
+        <v>699</v>
       </c>
       <c r="D113" s="2">
-        <v>1747</v>
+        <v>566</v>
       </c>
       <c r="E113" s="2">
-        <v>1776</v>
+        <v>475</v>
       </c>
       <c r="F113" s="2">
-        <v>8423</v>
+        <v>1651</v>
       </c>
       <c r="G113" s="2">
-        <v>7608</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="114">
@@ -3045,22 +3420,22 @@
         <v>44562</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2">
-        <v>4548</v>
+        <v>10793</v>
       </c>
       <c r="D114" s="2">
-        <v>4155</v>
+        <v>2506</v>
       </c>
       <c r="E114" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F114" s="2">
-        <v>1580</v>
+        <v>3582</v>
       </c>
       <c r="G114" s="2">
-        <v>1769</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="115">
@@ -3068,22 +3443,22 @@
         <v>44562</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="C115" s="2">
-        <v>2944</v>
+        <v>4548</v>
       </c>
       <c r="D115" s="2">
-        <v>1926</v>
+        <v>4155</v>
       </c>
       <c r="E115" s="2">
-        <v>1745</v>
+        <v>731</v>
       </c>
       <c r="F115" s="2">
-        <v>8103</v>
+        <v>1580</v>
       </c>
       <c r="G115" s="2">
-        <v>7420</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="116">
@@ -3091,22 +3466,22 @@
         <v>44562</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="C116" s="2">
-        <v>10793</v>
+        <v>744</v>
       </c>
       <c r="D116" s="2">
-        <v>2506</v>
+        <v>575</v>
       </c>
       <c r="E116" s="2">
-        <v>724</v>
+        <v>447</v>
       </c>
       <c r="F116" s="2">
-        <v>3582</v>
+        <v>1627</v>
       </c>
       <c r="G116" s="2">
-        <v>20525</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="117">
@@ -3114,22 +3489,22 @@
         <v>44562</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="C117" s="2">
-        <v>744</v>
+        <v>2944</v>
       </c>
       <c r="D117" s="2">
-        <v>575</v>
+        <v>1926</v>
       </c>
       <c r="E117" s="2">
-        <v>447</v>
+        <v>1745</v>
       </c>
       <c r="F117" s="2">
-        <v>1627</v>
+        <v>8103</v>
       </c>
       <c r="G117" s="2">
-        <v>1456</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="118">
@@ -3137,22 +3512,22 @@
         <v>44743</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="C118" s="2">
-        <v>860</v>
+        <v>4927</v>
       </c>
       <c r="D118" s="2">
-        <v>522</v>
+        <v>3704</v>
       </c>
       <c r="E118" s="2">
-        <v>485</v>
+        <v>807</v>
       </c>
       <c r="F118" s="2">
-        <v>1565</v>
+        <v>1521</v>
       </c>
       <c r="G118" s="2">
-        <v>1417</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="119">
@@ -3160,22 +3535,22 @@
         <v>44743</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="C119" s="2">
-        <v>4927</v>
+        <v>860</v>
       </c>
       <c r="D119" s="2">
-        <v>3704</v>
+        <v>522</v>
       </c>
       <c r="E119" s="2">
-        <v>807</v>
+        <v>485</v>
       </c>
       <c r="F119" s="2">
-        <v>1521</v>
+        <v>1565</v>
       </c>
       <c r="G119" s="2">
-        <v>1824</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="120">
@@ -3183,22 +3558,22 @@
         <v>44743</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="C120" s="2">
-        <v>3338</v>
+        <v>10976</v>
       </c>
       <c r="D120" s="2">
-        <v>1908</v>
+        <v>2207</v>
       </c>
       <c r="E120" s="2">
-        <v>1810</v>
+        <v>912</v>
       </c>
       <c r="F120" s="2">
-        <v>7589</v>
+        <v>3637</v>
       </c>
       <c r="G120" s="2">
-        <v>7493</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="121">
@@ -3206,22 +3581,22 @@
         <v>44743</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="C121" s="2">
-        <v>10976</v>
+        <v>3338</v>
       </c>
       <c r="D121" s="2">
-        <v>2207</v>
+        <v>1908</v>
       </c>
       <c r="E121" s="2">
-        <v>912</v>
+        <v>1810</v>
       </c>
       <c r="F121" s="2">
-        <v>3637</v>
+        <v>7589</v>
       </c>
       <c r="G121" s="2">
-        <v>20398</v>
+        <v>7493</v>
       </c>
     </row>
   </sheetData>
